--- a/vbexcel.xlsx
+++ b/vbexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VoronBrothersSSD\PycharmProjects\TestPack1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B7E953-EF20-4126-8DE9-43CC926450C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750CDF-93DC-4B9F-8B2A-A7B9D0C47FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +402,118 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
